--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933831DE-7CDA-4AB7-9ADA-FA9497992C2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="198">
   <si>
     <t>이름</t>
   </si>
@@ -100,6 +94,96 @@
     <t>연제출</t>
   </si>
   <si>
+    <t>조수아</t>
+  </si>
+  <si>
+    <t>최덕재</t>
+  </si>
+  <si>
+    <t>권기연</t>
+  </si>
+  <si>
+    <t>최병후</t>
+  </si>
+  <si>
+    <t>전산옥</t>
+  </si>
+  <si>
+    <t>김종열</t>
+  </si>
+  <si>
+    <t>김두례</t>
+  </si>
+  <si>
+    <t>김대영</t>
+  </si>
+  <si>
+    <t>송한나</t>
+  </si>
+  <si>
+    <t>김은선(이미 등록됨)</t>
+  </si>
+  <si>
+    <t>김태욱</t>
+  </si>
+  <si>
+    <t>송희영</t>
+  </si>
+  <si>
+    <t>유상선</t>
+  </si>
+  <si>
+    <t>모상천</t>
+  </si>
+  <si>
+    <t>박정애</t>
+  </si>
+  <si>
+    <t>임유미</t>
+  </si>
+  <si>
+    <t>김장미</t>
+  </si>
+  <si>
+    <t>박민숙</t>
+  </si>
+  <si>
+    <t>엄문태</t>
+  </si>
+  <si>
+    <t>김수미</t>
+  </si>
+  <si>
+    <t>강민정</t>
+  </si>
+  <si>
+    <t>박슬기</t>
+  </si>
+  <si>
+    <t>정기환</t>
+  </si>
+  <si>
+    <t>배인수</t>
+  </si>
+  <si>
+    <t>전산옥(이미 등록됨)</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>송유정</t>
+  </si>
+  <si>
+    <t>문문수</t>
+  </si>
+  <si>
+    <t>380415-2545818</t>
+  </si>
+  <si>
+    <t>411220-2548018</t>
+  </si>
+  <si>
     <t>510804-2548018</t>
   </si>
   <si>
@@ -109,6 +193,9 @@
     <t>520225-2011736</t>
   </si>
   <si>
+    <t>591113-6200298</t>
+  </si>
+  <si>
     <t>421225-2547614</t>
   </si>
   <si>
@@ -133,15 +220,105 @@
     <t>430620-2548114</t>
   </si>
   <si>
+    <t>420905-2690918</t>
+  </si>
+  <si>
+    <t>470115-1547521</t>
+  </si>
+  <si>
     <t>491025-2469111</t>
   </si>
   <si>
+    <t>331128-2023929</t>
+  </si>
+  <si>
+    <t>500724-2547519</t>
+  </si>
+  <si>
     <t>500505-2547624</t>
   </si>
   <si>
+    <t>350601-2548713</t>
+  </si>
+  <si>
+    <t>070131-4547611</t>
+  </si>
+  <si>
+    <t>420202-1540315</t>
+  </si>
+  <si>
+    <t>580306-2548211</t>
+  </si>
+  <si>
+    <t>570526-1535323</t>
+  </si>
+  <si>
+    <t>510110-2548811</t>
+  </si>
+  <si>
+    <t>751210-1047114</t>
+  </si>
+  <si>
+    <t>750201-2495519</t>
+  </si>
+  <si>
+    <t>571010-1482248</t>
+  </si>
+  <si>
+    <t>790719-2547813</t>
+  </si>
+  <si>
+    <t>941226-2496615</t>
+  </si>
+  <si>
+    <t>810826-1548321</t>
+  </si>
+  <si>
+    <t>731214-2526518</t>
+  </si>
+  <si>
+    <t>680705-1547821</t>
+  </si>
+  <si>
+    <t>731013-1495818</t>
+  </si>
+  <si>
+    <t>550524-2543125</t>
+  </si>
+  <si>
+    <t>820120-2011919</t>
+  </si>
+  <si>
+    <t>930822-2496919</t>
+  </si>
+  <si>
+    <t>651225-2543314</t>
+  </si>
+  <si>
+    <t>580704-1547515</t>
+  </si>
+  <si>
+    <t>601021-2167513</t>
+  </si>
+  <si>
+    <t>781026-2037720</t>
+  </si>
+  <si>
+    <t>900103-2125913</t>
+  </si>
+  <si>
+    <t>781110-1545713</t>
+  </si>
+  <si>
+    <t>590507-1520814</t>
+  </si>
+  <si>
     <t>010-9251-0776</t>
   </si>
   <si>
+    <t>010-8988-3383</t>
+  </si>
+  <si>
     <t>010-8609-5114</t>
   </si>
   <si>
@@ -151,6 +328,9 @@
     <t>010-2504-9812</t>
   </si>
   <si>
+    <t>010-7900-1726</t>
+  </si>
+  <si>
     <t>010-4163-9977</t>
   </si>
   <si>
@@ -160,21 +340,33 @@
     <t>010-9449-8334</t>
   </si>
   <si>
+    <t>063-858-0569</t>
+  </si>
+  <si>
     <t>010-3683-3579</t>
   </si>
   <si>
     <t>010-3029-6677</t>
   </si>
   <si>
+    <t>063-856-9689</t>
+  </si>
+  <si>
     <t>010-9944-3063</t>
   </si>
   <si>
     <t>010-6810-3954</t>
   </si>
   <si>
+    <t>010-2701-6896</t>
+  </si>
+  <si>
     <t>010-8551-2790</t>
   </si>
   <si>
+    <t>010-5033-3426</t>
+  </si>
+  <si>
     <t>전라북도 익산시 용안면 송산길 35(송산리)</t>
   </si>
   <si>
@@ -187,6 +379,90 @@
     <t>063-856-0718</t>
   </si>
   <si>
+    <t>063-858-1067</t>
+  </si>
+  <si>
+    <t>010-2911-9341</t>
+  </si>
+  <si>
+    <t>010-2473-4979</t>
+  </si>
+  <si>
+    <t>010-9503-0117</t>
+  </si>
+  <si>
+    <t>010-6480-3758</t>
+  </si>
+  <si>
+    <t>010-6277-9518</t>
+  </si>
+  <si>
+    <t>010-6252-3133</t>
+  </si>
+  <si>
+    <t>010-4158-7335</t>
+  </si>
+  <si>
+    <t>010-7139-7288</t>
+  </si>
+  <si>
+    <t>010-5778-4026</t>
+  </si>
+  <si>
+    <t>010-7921-5840</t>
+  </si>
+  <si>
+    <t>010-5773-7543</t>
+  </si>
+  <si>
+    <t>010-8392-7303</t>
+  </si>
+  <si>
+    <t>010-9836-8808</t>
+  </si>
+  <si>
+    <t>010-2063-5664</t>
+  </si>
+  <si>
+    <t>010-5735-9916</t>
+  </si>
+  <si>
+    <t>010-4312-5709</t>
+  </si>
+  <si>
+    <t>010-2565-2501</t>
+  </si>
+  <si>
+    <t>010-4996-1337</t>
+  </si>
+  <si>
+    <t>010-9757-7040</t>
+  </si>
+  <si>
+    <t>010-8640-9882</t>
+  </si>
+  <si>
+    <t>010-8354-0699</t>
+  </si>
+  <si>
+    <t>010-4482-2583</t>
+  </si>
+  <si>
+    <t>010-5480-3093</t>
+  </si>
+  <si>
+    <t>010-2487-8971</t>
+  </si>
+  <si>
+    <t>010-2799-1995</t>
+  </si>
+  <si>
+    <t>010-8738-7722</t>
+  </si>
+  <si>
+    <t>010-3768-2004</t>
+  </si>
+  <si>
     <t>황등면 고길 38</t>
   </si>
   <si>
@@ -241,6 +517,9 @@
     <t>전라북도 익산시 열읍 열5길 28 (와리, 함열휴먼시 아) 105동 1407호</t>
   </si>
   <si>
+    <t>010-8794-0377</t>
+  </si>
+  <si>
     <t>전라북도 익산시 항라면 신목오산길 11-5 (신목리)</t>
   </si>
   <si>
@@ -256,83 +535,90 @@
     <t>전라북도 익산시 황등면 대성1길 6 (신성리)</t>
   </si>
   <si>
-    <t>350601-2548713</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>063-858-1067</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>430904-2540713</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500724-2547519</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-8794-0377</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>331128-2023929</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-5033-3426</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>470115-1547521</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2701-6896</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>420905-2690918</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>063-856-9689</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>063-858-0569</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>591113-6200298</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-7900-1726</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>411220-2548018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-8988-3383</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>380415-2545818</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>부송 주공1</t>
+  </si>
+  <si>
+    <t>익산시 고봉로 16길 11, 102동 1806호(영등동, 라인아파트)</t>
+  </si>
+  <si>
+    <t>익산시 고봉로 7길 1,101호(영등동, 영등연립)</t>
+  </si>
+  <si>
+    <t>익산시 선화로23길 18-1, 201호(모현동)</t>
+  </si>
+  <si>
+    <t>익산시 궁동로1길 19, 102호(행운빌)</t>
+  </si>
+  <si>
+    <t>익산시 간촌리 원촌길9-11</t>
+  </si>
+  <si>
+    <t>무왕로 22길 12, 104동 316호(부송동, 부송 1주공)</t>
+  </si>
+  <si>
+    <t>무왕로26길 32, 105동 402호 (부송동, 동아아파트 1차)</t>
+  </si>
+  <si>
+    <t>인북로 176-51(남중동)</t>
+  </si>
+  <si>
+    <t>선화로 247-40,303호</t>
+  </si>
+  <si>
+    <t>하나로 483-60,308동 101(영등동 부영@)</t>
+  </si>
+  <si>
+    <t>여산면 여산동촌길 14-9</t>
+  </si>
+  <si>
+    <t>무왕로835, 102호 (신동, 샤론빌)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동천로7길 53-1, 106동 201호 (동산동, 비사벌아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">동천로1길 29, 202동 1104호 (동산동, 세경2차아파트) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">서동로12길 11-14 (동산동) </t>
+  </si>
+  <si>
+    <t>배산로 2길 10, 1동 106호</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고봉로 121 12동 401호 </t>
+  </si>
+  <si>
+    <t>하나로4길 17-1, 101호 (어양동)</t>
+  </si>
+  <si>
+    <t>하나로 357, 109동 307호 (어양동, 쌍용아파트)</t>
+  </si>
+  <si>
+    <t>무왕로19길 11, 605동 1404호 (어양동, 어양주공6단지)</t>
+  </si>
+  <si>
+    <t>하나로 357, 101동 507호 (어양동, 쌍용아파트)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">선화로7길 49, A동 402호 (모현동1가) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">선화로17길 23 (모현동1가) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">선화로23길 40, 가동 416호 (모현동1가, 이화모현아파트) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -340,15 +626,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -394,23 +673,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,27 +755,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,24 +789,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -729,22 +964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,344 +985,1141 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>107</v>
+      </c>
+      <c r="B26">
+        <v>106</v>
+      </c>
+      <c r="C26">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
         <v>78</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
         <v>79</v>
       </c>
-      <c r="D25" t="s">
-        <v>77</v>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77">
+        <v>950831</v>
+      </c>
+      <c r="C77" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77">
+        <v>2496917</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78">
+        <v>730424</v>
+      </c>
+      <c r="C78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78">
+        <v>2495814</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79">
+        <v>630222</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79">
+        <v>1549922</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80">
+        <v>950831</v>
+      </c>
+      <c r="C80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80">
+        <v>2496917</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81">
+        <v>730424</v>
+      </c>
+      <c r="C81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81">
+        <v>2495814</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82">
+        <v>630222</v>
+      </c>
+      <c r="C82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82">
+        <v>1549922</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696EDF66-3247-423D-BF7D-56279A8015B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>이름</t>
   </si>
@@ -38,17 +29,41 @@
   </si>
   <si>
     <t>시설</t>
+  </si>
+  <si>
+    <t>서승완</t>
+  </si>
+  <si>
+    <t>강경필</t>
+  </si>
+  <si>
+    <t>690810-1548214</t>
+  </si>
+  <si>
+    <t>950511-1454812</t>
+  </si>
+  <si>
+    <t>010-3173-2496</t>
+  </si>
+  <si>
+    <t>010-4374-1538</t>
+  </si>
+  <si>
+    <t>익산시 망성면 어량말길 78-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 용안면 입산1길 14-1 28통 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -56,15 +71,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -110,23 +118,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -168,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,27 +200,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,24 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,21 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,9 +433,35 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1" xr:uid="{0EFDF5C0-4598-43F2-B382-55D0A0807DC8}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>